--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\Uni Stuff\VVSS\Lab01\CheckLists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\Uni Stuff\VVSS\scir3221\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="14160" windowHeight="8265" tabRatio="650" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="14160" windowHeight="8265" tabRatio="650" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -229,19 +229,92 @@
   </si>
   <si>
     <t>Tasks are shown before being updated.</t>
+  </si>
+  <si>
+    <t>controller/Controller/36</t>
+  </si>
+  <si>
+    <t>Make this "public static mainTable" field final</t>
+  </si>
+  <si>
+    <t>Provide the parametrized type for this generic.</t>
+  </si>
+  <si>
+    <t>public static TableView mainTable;</t>
+  </si>
+  <si>
+    <t>static TableView mainTable;</t>
+  </si>
+  <si>
+    <t>public TableView&lt;Task&gt; tasks;</t>
+  </si>
+  <si>
+    <t>public TableView tasks;</t>
+  </si>
+  <si>
+    <t>controller/Controller/39</t>
+  </si>
+  <si>
+    <t>This block of commented-out lines of code should be removed.</t>
+  </si>
+  <si>
+    <t>Parent root = loader.load();//getClass().getResource("/fxml/new-edit-task.fxml"));</t>
+  </si>
+  <si>
+    <t>Parent root = loader.load();</t>
+  </si>
+  <si>
+    <t>controller/Controller/92</t>
+  </si>
+  <si>
+    <t>Remove this call to "equals"; comparisons against null always return false; consider using '== null' to check for nullity.</t>
+  </si>
+  <si>
+    <t>Change this condition so that it does not always evaluate to "false"</t>
+  </si>
+  <si>
+    <t>if (task.equals(null)) throw new NullPointerException("Task shouldn't be null");</t>
+  </si>
+  <si>
+    <t>if (task == null) throw new NullPointerException("Task shouldn't be null");</t>
+  </si>
+  <si>
+    <t>model/ArrayTaskList/55</t>
+  </si>
+  <si>
+    <t>Rename "tasks" which hides the field declared at line 11.</t>
+  </si>
+  <si>
+    <t>ArrayTaskList tasks = new ArrayTaskList();</t>
+  </si>
+  <si>
+    <t>ArrayTaskList cloneTasks = new ArrayTaskList();</t>
+  </si>
+  <si>
+    <t>model/ArrayTaskList/141</t>
+  </si>
+  <si>
+    <t>20.03.2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -420,77 +493,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -803,8 +877,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,19 +898,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -849,7 +923,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="18">
@@ -860,14 +934,14 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -878,14 +952,14 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="3">
@@ -897,19 +971,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1145,19 +1219,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1170,7 +1244,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="18">
@@ -1181,14 +1255,14 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -1199,14 +1273,14 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="3">
@@ -1218,19 +1292,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1461,7 +1535,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
@@ -1482,19 +1556,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1507,7 +1581,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="18">
@@ -1518,14 +1592,14 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -1536,14 +1610,14 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="3">
@@ -1555,19 +1629,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1820,8 +1894,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,19 +1916,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1867,7 +1941,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="37" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="18">
@@ -1878,12 +1952,12 @@
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -1894,12 +1968,14 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="23"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="3">
@@ -1911,8 +1987,10 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="23"/>
       <c r="F6" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1932,64 +2010,112 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -2145,12 +2271,14 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="19"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="19">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="14160" windowHeight="8265" tabRatio="650" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="14160" windowHeight="8265" tabRatio="650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Soare Cristian-Constantin</t>
-  </si>
-  <si>
-    <t>Szabo Zoltan-Vasile</t>
   </si>
   <si>
     <t>Zotica Ștefan-Lucian</t>
@@ -525,6 +522,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -567,7 +565,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,7 +875,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,19 +895,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -934,10 +931,10 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -952,38 +949,33 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="3">
-        <v>236</v>
-      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="23"/>
+      <c r="D7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1004,13 +996,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1019,13 +1011,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1034,13 +1026,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1049,13 +1041,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1200,7 +1192,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,19 +1211,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1255,10 +1247,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1273,38 +1265,33 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="3">
-        <v>236</v>
-      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="23"/>
+      <c r="D7" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1325,13 +1312,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1340,13 +1327,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1355,13 +1342,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1370,13 +1357,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1385,13 +1372,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1535,8 +1522,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,19 +1543,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1592,10 +1579,10 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1610,38 +1597,33 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="35"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="3">
-        <v>236</v>
-      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="23"/>
+      <c r="D7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1662,13 +1644,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1677,13 +1659,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1692,13 +1674,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1894,8 +1876,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,19 +1898,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1941,7 +1923,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="23" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="18">
@@ -1952,8 +1934,8 @@
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1968,29 +1950,24 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="24"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="3">
-        <v>236</v>
-      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="24"/>
       <c r="F6" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2015,16 +1992,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2033,16 +2010,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -2051,16 +2028,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -2069,16 +2046,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -2087,16 +2064,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2105,16 +2082,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2271,11 +2248,11 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="19">
         <v>1</v>
       </c>
